--- a/datos_dropcontrol/2025-08-08.xlsx
+++ b/datos_dropcontrol/2025-08-08.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,7 +491,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45877.04185537494</v>
+        <v>45877.04185537037</v>
       </c>
       <c r="B2" t="n">
         <v>2025</v>
@@ -522,6 +522,42 @@
       <c r="J2" t="inlineStr">
         <is>
           <t>01:00:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45877.08352210094</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C3" t="n">
+        <v>32</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.78</v>
+      </c>
+      <c r="E3" t="n">
+        <v>92</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>02:00:16</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-08.xlsx
+++ b/datos_dropcontrol/2025-08-08.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,7 +527,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45877.08352210094</v>
+        <v>45877.08352210648</v>
       </c>
       <c r="B3" t="n">
         <v>2025</v>
@@ -558,6 +558,42 @@
       <c r="J3" t="inlineStr">
         <is>
           <t>02:00:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45877.12518302574</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C4" t="n">
+        <v>32</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.61</v>
+      </c>
+      <c r="E4" t="n">
+        <v>92.37</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>03:00:15</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-08.xlsx
+++ b/datos_dropcontrol/2025-08-08.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,7 +563,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45877.12518302574</v>
+        <v>45877.12518302083</v>
       </c>
       <c r="B4" t="n">
         <v>2025</v>
@@ -594,6 +594,42 @@
       <c r="J4" t="inlineStr">
         <is>
           <t>03:00:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45877.33355579317</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C5" t="n">
+        <v>32</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.89</v>
+      </c>
+      <c r="E5" t="n">
+        <v>92.84</v>
+      </c>
+      <c r="F5" t="n">
+        <v>52.73</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>NW</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>08:00:19</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-08.xlsx
+++ b/datos_dropcontrol/2025-08-08.xlsx
@@ -1,40 +1,111 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\mi-app-humedad\datos_dropcontrol\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58994EEF-70B2-40D8-BB05-BBF243384BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="17385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Sem</t>
+  </si>
+  <si>
+    <t>Temperatura (ºC)</t>
+  </si>
+  <si>
+    <t>Humedad Relativa (%)</t>
+  </si>
+  <si>
+    <t>Radiación Solar (W/m²)</t>
+  </si>
+  <si>
+    <t>Velocidad de Viento Promedio (km/h)</t>
+  </si>
+  <si>
+    <t>Dirección de Viento Predominante</t>
+  </si>
+  <si>
+    <t>Precipitación (mm)</t>
+  </si>
+  <si>
+    <t>Hora de Ejecución</t>
+  </si>
+  <si>
+    <t>NNW</t>
+  </si>
+  <si>
+    <t>01:00:16</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>02:00:16</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>03:00:15</t>
+  </si>
+  <si>
+    <t>NW</t>
+  </si>
+  <si>
+    <t>08:00:19</t>
+  </si>
+  <si>
+    <t>ESE</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,94 +120,49 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -424,213 +450,300 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="3"/>
+    <col min="4" max="4" width="16.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" style="3" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Fecha</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Año</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Sem</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Temperatura (ºC)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Humedad Relativa (%)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Radiación Solar (W/m²)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Velocidad de Viento Promedio (km/h)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Dirección de Viento Predominante</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Precipitación (mm)</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Hora de Ejecución</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45877.04185537037</v>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>45877.041855370371</v>
+      </c>
+      <c r="B2" s="3">
         <v>2025</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="3">
         <v>32</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="3">
         <v>14.17</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="3">
         <v>91.91</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>NNW</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>01:00:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>45877.08352210648</v>
-      </c>
-      <c r="B3" t="n">
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>45877.083522106477</v>
+      </c>
+      <c r="B3" s="3">
         <v>2025</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="3">
         <v>32</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="3">
         <v>13.78</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="3">
         <v>92</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
         <v>7.23</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>SE</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>02:00:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>45877.12518302083</v>
-      </c>
-      <c r="B4" t="n">
+      <c r="H3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>45877.125185185185</v>
+      </c>
+      <c r="B4" s="3">
         <v>2025</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="3">
         <v>32</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="3">
         <v>13.61</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="3">
         <v>92.37</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
         <v>4.28</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>03:00:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45877.33355579317</v>
-      </c>
-      <c r="B5" t="n">
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>45877.166851851849</v>
+      </c>
+      <c r="B5" s="3">
         <v>2025</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="3">
         <v>32</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="3">
+        <v>13.67</v>
+      </c>
+      <c r="E5" s="3">
+        <v>92.7</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2.25</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>45877.208518518521</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2025</v>
+      </c>
+      <c r="C6" s="3">
+        <v>32</v>
+      </c>
+      <c r="D6" s="3">
+        <v>13.71</v>
+      </c>
+      <c r="E6" s="3">
+        <v>92.72</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>3.64</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>45877.250185185185</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="3">
+        <v>32</v>
+      </c>
+      <c r="D7" s="3">
+        <v>13.6</v>
+      </c>
+      <c r="E7" s="3">
+        <v>92.79</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1.32</v>
+      </c>
+      <c r="G7" s="3">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>45877.291851851849</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2025</v>
+      </c>
+      <c r="C8" s="3">
+        <v>32</v>
+      </c>
+      <c r="D8" s="3">
+        <v>13.75</v>
+      </c>
+      <c r="E8" s="3">
+        <v>92.84</v>
+      </c>
+      <c r="F8" s="3">
+        <v>29.44</v>
+      </c>
+      <c r="G8" s="3">
+        <v>3.25</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>45877.333555793171</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2025</v>
+      </c>
+      <c r="C9" s="3">
+        <v>32</v>
+      </c>
+      <c r="D9" s="3">
         <v>13.89</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E9" s="3">
         <v>92.84</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F9" s="3">
         <v>52.73</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G9" s="3">
         <v>4.93</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>NW</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>08:00:19</t>
-        </is>
+      <c r="H9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/datos_dropcontrol/2025-08-08.xlsx
+++ b/datos_dropcontrol/2025-08-08.xlsx
@@ -1,111 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\mi-app-humedad\datos_dropcontrol\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58994EEF-70B2-40D8-BB05-BBF243384BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="17385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
-  <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>Año</t>
-  </si>
-  <si>
-    <t>Sem</t>
-  </si>
-  <si>
-    <t>Temperatura (ºC)</t>
-  </si>
-  <si>
-    <t>Humedad Relativa (%)</t>
-  </si>
-  <si>
-    <t>Radiación Solar (W/m²)</t>
-  </si>
-  <si>
-    <t>Velocidad de Viento Promedio (km/h)</t>
-  </si>
-  <si>
-    <t>Dirección de Viento Predominante</t>
-  </si>
-  <si>
-    <t>Precipitación (mm)</t>
-  </si>
-  <si>
-    <t>Hora de Ejecución</t>
-  </si>
-  <si>
-    <t>NNW</t>
-  </si>
-  <si>
-    <t>01:00:16</t>
-  </si>
-  <si>
-    <t>SE</t>
-  </si>
-  <si>
-    <t>02:00:16</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>03:00:15</t>
-  </si>
-  <si>
-    <t>NW</t>
-  </si>
-  <si>
-    <t>08:00:19</t>
-  </si>
-  <si>
-    <t>ESE</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -120,49 +49,94 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -450,300 +424,377 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="3"/>
-    <col min="4" max="4" width="16.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" style="3" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>45877.041855370371</v>
-      </c>
-      <c r="B2" s="3">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Fecha</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Año</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Sem</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Temperatura (ºC)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Humedad Relativa (%)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Radiación Solar (W/m²)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Velocidad de Viento Promedio (km/h)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Dirección de Viento Predominante</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Precipitación (mm)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Hora de Ejecución</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45877.04185537037</v>
+      </c>
+      <c r="B2" t="n">
         <v>2025</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" t="n">
         <v>32</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" t="n">
         <v>14.17</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" t="n">
         <v>91.91</v>
       </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>45877.083522106477</v>
-      </c>
-      <c r="B3" s="3">
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>NNW</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>01:00:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45877.08352210648</v>
+      </c>
+      <c r="B3" t="n">
         <v>2025</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" t="n">
         <v>32</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" t="n">
         <v>13.78</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" t="n">
         <v>92</v>
       </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3">
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>7.23</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>45877.125185185185</v>
-      </c>
-      <c r="B4" s="3">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>02:00:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45877.12518518518</v>
+      </c>
+      <c r="B4" t="n">
         <v>2025</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" t="n">
         <v>32</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" t="n">
         <v>13.61</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" t="n">
         <v>92.37</v>
       </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3">
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
         <v>4.28</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>45877.166851851849</v>
-      </c>
-      <c r="B5" s="3">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>03:00:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45877.16685185185</v>
+      </c>
+      <c r="B5" t="n">
         <v>2025</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" t="n">
         <v>32</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" t="n">
         <v>13.67</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" t="n">
         <v>92.7</v>
       </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>2.25</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>45877.208518518521</v>
-      </c>
-      <c r="B6" s="3">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45877.20851851852</v>
+      </c>
+      <c r="B6" t="n">
         <v>2025</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" t="n">
         <v>32</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" t="n">
         <v>13.71</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" t="n">
         <v>92.72</v>
       </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
         <v>3.64</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>45877.250185185185</v>
-      </c>
-      <c r="B7" s="3">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45877.25018518518</v>
+      </c>
+      <c r="B7" t="n">
         <v>2025</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" t="n">
         <v>32</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" t="n">
         <v>13.6</v>
       </c>
-      <c r="E7" s="3">
-        <v>92.79</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="E7" t="n">
+        <v>92.79000000000001</v>
+      </c>
+      <c r="F7" t="n">
         <v>1.32</v>
       </c>
-      <c r="G7" s="3">
-        <v>4.1100000000000003</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>45877.291851851849</v>
-      </c>
-      <c r="B8" s="3">
+      <c r="G7" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45877.29185185185</v>
+      </c>
+      <c r="B8" t="n">
         <v>2025</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" t="n">
         <v>32</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" t="n">
         <v>13.75</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" t="n">
         <v>92.84</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" t="n">
         <v>29.44</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" t="n">
         <v>3.25</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>45877.333555793171</v>
-      </c>
-      <c r="B9" s="3">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45877.33355579861</v>
+      </c>
+      <c r="B9" t="n">
         <v>2025</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" t="n">
         <v>32</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" t="n">
         <v>13.89</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" t="n">
         <v>92.84</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" t="n">
         <v>52.73</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" t="n">
         <v>4.93</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>17</v>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>NW</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>08:00:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45877.3386534715</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C10" t="n">
+        <v>32</v>
+      </c>
+      <c r="D10" t="n">
+        <v>14.17</v>
+      </c>
+      <c r="E10" t="n">
+        <v>93.03</v>
+      </c>
+      <c r="F10" t="n">
+        <v>84.38</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>NW</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>08:07:39</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/datos_dropcontrol/2025-08-08.xlsx
+++ b/datos_dropcontrol/2025-08-08.xlsx
@@ -763,7 +763,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45877.3386534715</v>
+        <v>45877.37517244972</v>
       </c>
       <c r="B10" t="n">
         <v>2025</v>
@@ -772,20 +772,20 @@
         <v>32</v>
       </c>
       <c r="D10" t="n">
-        <v>14.17</v>
+        <v>14.83</v>
       </c>
       <c r="E10" t="n">
-        <v>93.03</v>
+        <v>92.65000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>84.38</v>
+        <v>163.48</v>
       </c>
       <c r="G10" t="n">
-        <v>3.84</v>
+        <v>5.36</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>NW</t>
+          <t>SE</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -793,7 +793,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>08:07:39</t>
+          <t>09:00:14</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-08.xlsx
+++ b/datos_dropcontrol/2025-08-08.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -763,7 +763,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45877.37517244972</v>
+        <v>45877.37517245371</v>
       </c>
       <c r="B10" t="n">
         <v>2025</v>
@@ -794,6 +794,42 @@
       <c r="J10" t="inlineStr">
         <is>
           <t>09:00:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45877.41691968337</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C11" t="n">
+        <v>32</v>
+      </c>
+      <c r="D11" t="n">
+        <v>15.06</v>
+      </c>
+      <c r="E11" t="n">
+        <v>89.66</v>
+      </c>
+      <c r="F11" t="n">
+        <v>186.33</v>
+      </c>
+      <c r="G11" t="n">
+        <v>10.46</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>10:00:21</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-08.xlsx
+++ b/datos_dropcontrol/2025-08-08.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -799,7 +799,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45877.41691968337</v>
+        <v>45877.4169196875</v>
       </c>
       <c r="B11" t="n">
         <v>2025</v>
@@ -830,6 +830,42 @@
       <c r="J11" t="inlineStr">
         <is>
           <t>10:00:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45877.45849543768</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C12" t="n">
+        <v>32</v>
+      </c>
+      <c r="D12" t="n">
+        <v>15.44</v>
+      </c>
+      <c r="E12" t="n">
+        <v>89.29000000000001</v>
+      </c>
+      <c r="F12" t="n">
+        <v>302.34</v>
+      </c>
+      <c r="G12" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>11:00:14</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-08.xlsx
+++ b/datos_dropcontrol/2025-08-08.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -835,7 +835,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45877.45849543768</v>
+        <v>45877.45849543982</v>
       </c>
       <c r="B12" t="n">
         <v>2025</v>
@@ -866,6 +866,42 @@
       <c r="J12" t="inlineStr">
         <is>
           <t>11:00:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45877.5001959631</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C13" t="n">
+        <v>32</v>
+      </c>
+      <c r="D13" t="n">
+        <v>16.61</v>
+      </c>
+      <c r="E13" t="n">
+        <v>85.93000000000001</v>
+      </c>
+      <c r="F13" t="n">
+        <v>488.67</v>
+      </c>
+      <c r="G13" t="n">
+        <v>13.47</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>12:00:16</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-08.xlsx
+++ b/datos_dropcontrol/2025-08-08.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -871,7 +871,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45877.5001959631</v>
+        <v>45877.50019596065</v>
       </c>
       <c r="B13" t="n">
         <v>2025</v>
@@ -902,6 +902,42 @@
       <c r="J13" t="inlineStr">
         <is>
           <t>12:00:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45877.54186516787</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C14" t="n">
+        <v>32</v>
+      </c>
+      <c r="D14" t="n">
+        <v>18.44</v>
+      </c>
+      <c r="E14" t="n">
+        <v>79.11</v>
+      </c>
+      <c r="F14" t="n">
+        <v>622.27</v>
+      </c>
+      <c r="G14" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>13:00:17</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-08.xlsx
+++ b/datos_dropcontrol/2025-08-08.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -907,7 +907,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45877.54186516787</v>
+        <v>45877.54186517361</v>
       </c>
       <c r="B14" t="n">
         <v>2025</v>
@@ -938,6 +938,42 @@
       <c r="J14" t="inlineStr">
         <is>
           <t>13:00:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45877.58355226297</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C15" t="n">
+        <v>32</v>
+      </c>
+      <c r="D15" t="n">
+        <v>19.39</v>
+      </c>
+      <c r="E15" t="n">
+        <v>77.70999999999999</v>
+      </c>
+      <c r="F15" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="G15" t="n">
+        <v>13.51</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>14:00:18</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-08.xlsx
+++ b/datos_dropcontrol/2025-08-08.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -943,7 +943,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45877.58355226297</v>
+        <v>45877.58355226852</v>
       </c>
       <c r="B15" t="n">
         <v>2025</v>
@@ -974,6 +974,42 @@
       <c r="J15" t="inlineStr">
         <is>
           <t>14:00:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45877.62522984331</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C16" t="n">
+        <v>32</v>
+      </c>
+      <c r="D16" t="n">
+        <v>19.22</v>
+      </c>
+      <c r="E16" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="F16" t="n">
+        <v>442.97</v>
+      </c>
+      <c r="G16" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>15:00:19</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-08.xlsx
+++ b/datos_dropcontrol/2025-08-08.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -979,7 +979,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45877.62522984331</v>
+        <v>45877.62522983796</v>
       </c>
       <c r="B16" t="n">
         <v>2025</v>
@@ -1010,6 +1010,42 @@
       <c r="J16" t="inlineStr">
         <is>
           <t>15:00:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45877.70853273479</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C17" t="n">
+        <v>32</v>
+      </c>
+      <c r="D17" t="n">
+        <v>19.17</v>
+      </c>
+      <c r="E17" t="n">
+        <v>76.87</v>
+      </c>
+      <c r="F17" t="n">
+        <v>138.87</v>
+      </c>
+      <c r="G17" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>17:00:17</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-08.xlsx
+++ b/datos_dropcontrol/2025-08-08.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45877.70853273479</v>
+        <v>45877.70853273148</v>
       </c>
       <c r="B17" t="n">
         <v>2025</v>
@@ -1046,6 +1046,42 @@
       <c r="J17" t="inlineStr">
         <is>
           <t>17:00:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45877.75021111657</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C18" t="n">
+        <v>32</v>
+      </c>
+      <c r="D18" t="n">
+        <v>17.28</v>
+      </c>
+      <c r="E18" t="n">
+        <v>81.16</v>
+      </c>
+      <c r="F18" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="G18" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>18:00:18</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-08.xlsx
+++ b/datos_dropcontrol/2025-08-08.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1051,7 +1051,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45877.75021111657</v>
+        <v>45877.75021111111</v>
       </c>
       <c r="B18" t="n">
         <v>2025</v>
@@ -1082,6 +1082,42 @@
       <c r="J18" t="inlineStr">
         <is>
           <t>18:00:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45877.79190259425</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C19" t="n">
+        <v>32</v>
+      </c>
+      <c r="D19" t="n">
+        <v>15</v>
+      </c>
+      <c r="E19" t="n">
+        <v>86.3</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>ENE</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>19:00:20</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-08.xlsx
+++ b/datos_dropcontrol/2025-08-08.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45877.79190259425</v>
+        <v>45877.79190259259</v>
       </c>
       <c r="B19" t="n">
         <v>2025</v>
@@ -1118,6 +1118,42 @@
       <c r="J19" t="inlineStr">
         <is>
           <t>19:00:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45877.83353757377</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C20" t="n">
+        <v>32</v>
+      </c>
+      <c r="D20" t="n">
+        <v>14.22</v>
+      </c>
+      <c r="E20" t="n">
+        <v>89.29000000000001</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>20:00:17</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-08.xlsx
+++ b/datos_dropcontrol/2025-08-08.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1123,7 +1123,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45877.83353757377</v>
+        <v>45877.83353756944</v>
       </c>
       <c r="B20" t="n">
         <v>2025</v>
@@ -1154,6 +1154,42 @@
       <c r="J20" t="inlineStr">
         <is>
           <t>20:00:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45877.87534339354</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C21" t="n">
+        <v>32</v>
+      </c>
+      <c r="D21" t="n">
+        <v>14.11</v>
+      </c>
+      <c r="E21" t="n">
+        <v>90.31999999999999</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>21:00:29</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-08.xlsx
+++ b/datos_dropcontrol/2025-08-08.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1159,7 +1159,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45877.87534339354</v>
+        <v>45877.87534339121</v>
       </c>
       <c r="B21" t="n">
         <v>2025</v>
@@ -1190,6 +1190,42 @@
       <c r="J21" t="inlineStr">
         <is>
           <t>21:00:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45877.91685341245</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C22" t="n">
+        <v>32</v>
+      </c>
+      <c r="D22" t="n">
+        <v>14.33</v>
+      </c>
+      <c r="E22" t="n">
+        <v>90.41</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>NNE</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>22:00:16</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-08-08.xlsx
+++ b/datos_dropcontrol/2025-08-08.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45877.91685341245</v>
+        <v>45877.91685341435</v>
       </c>
       <c r="B22" t="n">
         <v>2025</v>
@@ -1226,6 +1226,42 @@
       <c r="J22" t="inlineStr">
         <is>
           <t>22:00:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45877.95851961544</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C23" t="n">
+        <v>32</v>
+      </c>
+      <c r="D23" t="n">
+        <v>15.39</v>
+      </c>
+      <c r="E23" t="n">
+        <v>88.17</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>WNW</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>23:00:16</t>
         </is>
       </c>
     </row>
